--- a/InputData/web-app/CDCF/Cargo Dist Conversion Factors.xlsx
+++ b/InputData/web-app/CDCF/Cargo Dist Conversion Factors.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.4.1-mexico-wipA\InputData\web-app\CDCF\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="19140" windowHeight="7095"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="19140" windowHeight="7090"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="CDCF-PMpPDOU" sheetId="2" r:id="rId2"/>
     <sheet name="CDCF-FTMpFDOU" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Source:</t>
   </si>
@@ -41,6 +36,15 @@
     <t>desired output unit.</t>
   </si>
   <si>
+    <t>For the U.S. model, the desired output units are:</t>
+  </si>
+  <si>
+    <t>trillion passenger-miles</t>
+  </si>
+  <si>
+    <t>trillion freight ton-miles</t>
+  </si>
+  <si>
     <t>CDCF Passenger Miles per Passenger Distance Output Unit</t>
   </si>
   <si>
@@ -57,24 +61,12 @@
   </si>
   <si>
     <t>CDCF Freight Ton Miles per Freight Distance Output Unit</t>
-  </si>
-  <si>
-    <t>kilometers per mile</t>
-  </si>
-  <si>
-    <t>billion passenger-kilometers</t>
-  </si>
-  <si>
-    <t>billion freight ton-kilometers</t>
-  </si>
-  <si>
-    <t>For the Mexico model, the desired output units are:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -129,9 +121,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -179,7 +168,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -214,7 +203,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -423,23 +412,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,49 +436,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1.60934</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -507,24 +486,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.26953125" customWidth="1"/>
+    <col min="2" max="2" width="28.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <f>10^9*About!A16</f>
-        <v>1609340000</v>
+        <f>10^12</f>
+        <v>1000000000000</v>
       </c>
     </row>
   </sheetData>
@@ -541,24 +520,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.81640625" customWidth="1"/>
+    <col min="2" max="2" width="26.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B2">
-        <f>10^9*About!A16</f>
-        <v>1609340000</v>
+        <f>10^12</f>
+        <v>1000000000000</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/web-app/CDCF/Cargo Dist Conversion Factors.xlsx
+++ b/InputData/web-app/CDCF/Cargo Dist Conversion Factors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\OneDrive\Desktop\India InputData 5-6-2020\web-app\CDCF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-mexico\InputData\web-app\CDCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2315D679-75BF-456D-9B52-FDDF8539BBEB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F496BAC-E30A-42D5-96AA-0476CB43D7F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -59,9 +63,6 @@
     <t>CDCF Freight Ton Miles per Freight Distance Output Unit</t>
   </si>
   <si>
-    <t>For the India model, the desired output units are:</t>
-  </si>
-  <si>
     <t>trillion passenger-kilometers</t>
   </si>
   <si>
@@ -78,6 +79,9 @@
   </si>
   <si>
     <t>freight ton-kilometers</t>
+  </si>
+  <si>
+    <t>For the Mexico model, the desired output units are:</t>
   </si>
 </sst>
 </file>
@@ -480,70 +484,70 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -566,24 +570,23 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.26953125" customWidth="1"/>
+    <col min="2" max="2" width="28.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2">
-        <f>1.60934*10^12</f>
-        <v>1609340000000</v>
+        <v>621372736649.80676</v>
       </c>
     </row>
   </sheetData>
@@ -599,27 +602,26 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.81640625" customWidth="1"/>
+    <col min="2" max="2" width="26.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2">
-        <f>1.60934*10^12</f>
-        <v>1609340000000</v>
+        <v>621372736649.80676</v>
       </c>
     </row>
   </sheetData>
